--- a/Data/restructured_survey_combined_newest.xlsx
+++ b/Data/restructured_survey_combined_newest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity-my.sharepoint.com/personal/james_kemper_ttu_edu/Documents/Git/TTU_ECO_gradauate_program_review/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{546BECAB-F9CF-4FB1-942B-B458DB587713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7E6814C-BDDF-451A-B2B1-0F81B578B17C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{546BECAB-F9CF-4FB1-942B-B458DB587713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E073A03-C909-4085-823C-18EF1DD87257}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Questions" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +332,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E7B74A51-E4E9-4841-BEAF-140C55106C0D}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -634,17 +636,17 @@
   <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -661,7 +663,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -678,12 +680,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -700,7 +702,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -717,12 +719,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -739,7 +741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -756,12 +758,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -778,7 +780,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -795,12 +797,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -817,7 +819,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -834,12 +836,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -856,7 +858,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -873,12 +875,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -895,7 +897,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -912,12 +914,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -934,7 +936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -951,12 +953,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -973,7 +975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -990,12 +992,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1014,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -1029,12 +1031,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1051,7 +1053,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1068,12 +1070,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1090,7 +1092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -1107,12 +1109,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1146,12 +1148,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -1168,7 +1170,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
@@ -1185,12 +1187,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1209,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1224,12 +1226,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -1246,7 +1248,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -1263,12 +1265,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -1302,12 +1304,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -1324,7 +1326,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -1341,12 +1343,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -1380,12 +1382,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -1402,7 +1404,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0</v>
       </c>
@@ -1419,12 +1421,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -1458,12 +1460,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -1480,7 +1482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -1497,12 +1499,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1521,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -1536,12 +1538,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>37</v>
       </c>
@@ -1558,7 +1560,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0</v>
       </c>
@@ -1575,12 +1577,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
